--- a/Images/layout.xlsx
+++ b/Images/layout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>LED NR</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>HOLES</t>
+  </si>
+  <si>
+    <t>Angle *</t>
   </si>
 </sst>
 </file>
@@ -279,11 +282,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="153848448"/>
-        <c:axId val="47903488"/>
+        <c:axId val="200742016"/>
+        <c:axId val="200743936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153848448"/>
+        <c:axId val="200742016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -293,12 +296,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47903488"/>
+        <c:crossAx val="200743936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47903488"/>
+        <c:axId val="200743936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -308,7 +311,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153848448"/>
+        <c:crossAx val="200742016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -323,7 +326,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -396,11 +399,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="216115456"/>
-        <c:axId val="216113536"/>
+        <c:axId val="200877568"/>
+        <c:axId val="200879488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216115456"/>
+        <c:axId val="200877568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -410,12 +413,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216113536"/>
+        <c:crossAx val="200879488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216113536"/>
+        <c:axId val="200879488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -425,7 +428,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216115456"/>
+        <c:crossAx val="200877568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -440,7 +443,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -501,11 +504,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="226173312"/>
-        <c:axId val="238210048"/>
+        <c:axId val="200886144"/>
+        <c:axId val="200908800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226173312"/>
+        <c:axId val="200886144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -515,12 +518,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238210048"/>
+        <c:crossAx val="200908800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238210048"/>
+        <c:axId val="200908800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -530,7 +533,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226173312"/>
+        <c:crossAx val="200886144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -545,7 +548,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2083,15 +2086,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J7:M33"/>
+  <dimension ref="J7:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="7" spans="10:13">
+    <row r="7" spans="10:14">
       <c r="J7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2104,8 +2107,11 @@
       <c r="M7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="N7" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="10:13">
+    <row r="8" spans="10:14">
       <c r="J8">
         <v>0</v>
       </c>
@@ -2120,8 +2126,12 @@
         <f>+SIN(K8*PI()/180)</f>
         <v>0.92050485345244026</v>
       </c>
+      <c r="N8">
+        <f>+K8</f>
+        <v>67</v>
+      </c>
     </row>
-    <row r="9" spans="10:13">
+    <row r="9" spans="10:14">
       <c r="J9">
         <v>1</v>
       </c>
@@ -2136,8 +2146,12 @@
         <f t="shared" ref="M9:M26" si="1">+SIN(K9*PI()/180)</f>
         <v>0.8191520442889918</v>
       </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N13" si="2">+K9</f>
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="10:13">
+    <row r="10" spans="10:14">
       <c r="J10">
         <v>2</v>
       </c>
@@ -2152,8 +2166,12 @@
         <f t="shared" si="1"/>
         <v>0.65605902899050716</v>
       </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
     </row>
-    <row r="11" spans="10:13">
+    <row r="11" spans="10:14">
       <c r="J11">
         <v>3</v>
       </c>
@@ -2168,8 +2186,12 @@
         <f t="shared" si="1"/>
         <v>0.46947156278589081</v>
       </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="12" spans="10:13">
+    <row r="12" spans="10:14">
       <c r="J12">
         <v>4</v>
       </c>
@@ -2184,8 +2206,12 @@
         <f t="shared" si="1"/>
         <v>0.27563735581699916</v>
       </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="13" spans="10:13">
+    <row r="13" spans="10:14">
       <c r="J13">
         <v>5</v>
       </c>
@@ -2200,8 +2226,12 @@
         <f t="shared" si="1"/>
         <v>1.7452406437283512E-2</v>
       </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="10:13">
+    <row r="14" spans="10:14">
       <c r="J14">
         <v>6</v>
       </c>
@@ -2216,8 +2246,12 @@
         <f t="shared" si="1"/>
         <v>-0.17364817766693033</v>
       </c>
+      <c r="N14">
+        <f>+K14+360</f>
+        <v>350</v>
+      </c>
     </row>
-    <row r="15" spans="10:13">
+    <row r="15" spans="10:14">
       <c r="J15">
         <v>7</v>
       </c>
@@ -2232,8 +2266,12 @@
         <f t="shared" si="1"/>
         <v>-0.60181502315204827</v>
       </c>
+      <c r="N15">
+        <f t="shared" ref="N15:N26" si="3">+K15+360</f>
+        <v>323</v>
+      </c>
     </row>
-    <row r="16" spans="10:13">
+    <row r="16" spans="10:14">
       <c r="J16">
         <v>8</v>
       </c>
@@ -2248,8 +2286,12 @@
         <f t="shared" si="1"/>
         <v>-0.89100652418836779</v>
       </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
     </row>
-    <row r="17" spans="10:13">
+    <row r="17" spans="10:14">
       <c r="J17">
         <v>9</v>
       </c>
@@ -2264,8 +2306,12 @@
         <f t="shared" si="1"/>
         <v>-0.96592582628906831</v>
       </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>285</v>
+      </c>
     </row>
-    <row r="18" spans="10:13">
+    <row r="18" spans="10:14">
       <c r="J18">
         <v>10</v>
       </c>
@@ -2280,8 +2326,12 @@
         <f t="shared" si="1"/>
         <v>-0.99939082701909576</v>
       </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>272</v>
+      </c>
     </row>
-    <row r="19" spans="10:13">
+    <row r="19" spans="10:14">
       <c r="J19">
         <v>11</v>
       </c>
@@ -2296,8 +2346,12 @@
         <f t="shared" si="1"/>
         <v>-0.98162718344766398</v>
       </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>259</v>
+      </c>
     </row>
-    <row r="20" spans="10:13">
+    <row r="20" spans="10:14">
       <c r="J20">
         <v>12</v>
       </c>
@@ -2312,8 +2366,12 @@
         <f t="shared" si="1"/>
         <v>-0.57357643635104638</v>
       </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
     </row>
-    <row r="21" spans="10:13">
+    <row r="21" spans="10:14">
       <c r="J21">
         <v>13</v>
       </c>
@@ -2328,8 +2386,12 @@
         <f t="shared" si="1"/>
         <v>-0.22495105434386478</v>
       </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
     </row>
-    <row r="22" spans="10:13">
+    <row r="22" spans="10:14">
       <c r="J22">
         <v>14</v>
       </c>
@@ -2344,8 +2406,12 @@
         <f t="shared" si="1"/>
         <v>-1.22514845490862E-16</v>
       </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
     </row>
-    <row r="23" spans="10:13">
+    <row r="23" spans="10:14">
       <c r="J23">
         <v>15</v>
       </c>
@@ -2360,8 +2426,12 @@
         <f t="shared" si="1"/>
         <v>0.22495105434386498</v>
       </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>167</v>
+      </c>
     </row>
-    <row r="24" spans="10:13">
+    <row r="24" spans="10:14">
       <c r="J24">
         <v>16</v>
       </c>
@@ -2376,8 +2446,12 @@
         <f t="shared" si="1"/>
         <v>0.43837114678907707</v>
       </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
     </row>
-    <row r="25" spans="10:13">
+    <row r="25" spans="10:14">
       <c r="J25">
         <v>17</v>
       </c>
@@ -2392,8 +2466,12 @@
         <f t="shared" si="1"/>
         <v>0.69465837045899737</v>
       </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
     </row>
-    <row r="26" spans="10:13">
+    <row r="26" spans="10:14">
       <c r="J26">
         <v>18</v>
       </c>
@@ -2408,13 +2486,17 @@
         <f t="shared" si="1"/>
         <v>0.83867056794542405</v>
       </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
     </row>
-    <row r="28" spans="10:13">
+    <row r="28" spans="10:14">
       <c r="J28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="10:13">
+    <row r="29" spans="10:14">
       <c r="J29" t="s">
         <v>5</v>
       </c>
@@ -2422,15 +2504,15 @@
         <v>-25</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29:L32" si="2">+COS(K29*PI()/180)</f>
+        <f t="shared" ref="L29:L31" si="4">+COS(K29*PI()/180)</f>
         <v>0.90630778703664994</v>
       </c>
       <c r="M29">
-        <f t="shared" ref="M29:M32" si="3">+SIN(K29*PI()/180)</f>
+        <f t="shared" ref="M29:M31" si="5">+SIN(K29*PI()/180)</f>
         <v>-0.42261826174069944</v>
       </c>
     </row>
-    <row r="30" spans="10:13">
+    <row r="30" spans="10:14">
       <c r="J30" t="s">
         <v>6</v>
       </c>
@@ -2438,15 +2520,15 @@
         <v>-155</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.90630778703664994</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.4226182617406995</v>
       </c>
     </row>
-    <row r="31" spans="10:13">
+    <row r="31" spans="10:14">
       <c r="J31" t="s">
         <v>7</v>
       </c>
@@ -2454,11 +2536,11 @@
         <v>-248</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.37460659341591229</v>
       </c>
       <c r="M31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.92718385456678731</v>
       </c>
     </row>
